--- a/Team-Data/2008-09/3-5-2008-09.xlsx
+++ b/Team-Data/2008-09/3-5-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -780,7 +847,7 @@
         <v>16</v>
       </c>
       <c r="AP2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ2" t="n">
         <v>29</v>
@@ -798,13 +865,13 @@
         <v>16</v>
       </c>
       <c r="AV2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW2" t="n">
         <v>11</v>
       </c>
       <c r="AX2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-5-2008-09</t>
+          <t>2009-03-05</t>
         </is>
       </c>
     </row>
@@ -848,58 +915,58 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E3" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" t="n">
         <v>14</v>
       </c>
       <c r="G3" t="n">
-        <v>0.77</v>
+        <v>0.774</v>
       </c>
       <c r="H3" t="n">
         <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J3" t="n">
         <v>76.90000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.488</v>
+        <v>0.487</v>
       </c>
       <c r="L3" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M3" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0.395</v>
+        <v>0.392</v>
       </c>
       <c r="O3" t="n">
         <v>20.3</v>
       </c>
       <c r="P3" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.775</v>
+        <v>0.772</v>
       </c>
       <c r="R3" t="n">
         <v>10.7</v>
       </c>
       <c r="S3" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T3" t="n">
-        <v>42.6</v>
+        <v>42.5</v>
       </c>
       <c r="U3" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="V3" t="n">
         <v>15.9</v>
@@ -908,28 +975,28 @@
         <v>8</v>
       </c>
       <c r="X3" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y3" t="n">
         <v>4.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.9</v>
+        <v>101.7</v>
       </c>
       <c r="AC3" t="n">
         <v>9.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AE3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF3" t="n">
         <v>3</v>
@@ -938,7 +1005,7 @@
         <v>3</v>
       </c>
       <c r="AH3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI3" t="n">
         <v>9</v>
@@ -950,31 +1017,31 @@
         <v>2</v>
       </c>
       <c r="AL3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM3" t="n">
         <v>21</v>
       </c>
       <c r="AN3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP3" t="n">
         <v>7</v>
       </c>
       <c r="AQ3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR3" t="n">
         <v>20</v>
       </c>
       <c r="AS3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AU3" t="n">
         <v>3</v>
@@ -986,7 +1053,7 @@
         <v>7</v>
       </c>
       <c r="AX3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AY3" t="n">
         <v>12</v>
@@ -995,7 +1062,7 @@
         <v>27</v>
       </c>
       <c r="BA3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB3" t="n">
         <v>9</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-5-2008-09</t>
+          <t>2009-03-05</t>
         </is>
       </c>
     </row>
@@ -1114,7 +1181,7 @@
         <v>21</v>
       </c>
       <c r="AF4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG4" t="n">
         <v>20</v>
@@ -1129,7 +1196,7 @@
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL4" t="n">
         <v>23</v>
@@ -1159,7 +1226,7 @@
         <v>26</v>
       </c>
       <c r="AU4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV4" t="n">
         <v>25</v>
@@ -1183,7 +1250,7 @@
         <v>30</v>
       </c>
       <c r="BC4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-5-2008-09</t>
+          <t>2009-03-05</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" t="n">
         <v>34</v>
       </c>
       <c r="G5" t="n">
-        <v>0.443</v>
+        <v>0.452</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
@@ -1230,43 +1297,43 @@
         <v>37.6</v>
       </c>
       <c r="J5" t="n">
-        <v>83.59999999999999</v>
+        <v>83.3</v>
       </c>
       <c r="K5" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="L5" t="n">
         <v>5.8</v>
       </c>
       <c r="M5" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="N5" t="n">
         <v>0.375</v>
       </c>
       <c r="O5" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="P5" t="n">
-        <v>24.5</v>
+        <v>24.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.79</v>
+        <v>0.789</v>
       </c>
       <c r="R5" t="n">
         <v>12.2</v>
       </c>
       <c r="S5" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T5" t="n">
-        <v>42.6</v>
+        <v>42.5</v>
       </c>
       <c r="U5" t="n">
         <v>21</v>
       </c>
       <c r="V5" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W5" t="n">
         <v>7.5</v>
@@ -1278,19 +1345,19 @@
         <v>5.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB5" t="n">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.6</v>
+        <v>-1.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AE5" t="n">
         <v>18</v>
@@ -1302,7 +1369,7 @@
         <v>18</v>
       </c>
       <c r="AH5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI5" t="n">
         <v>8</v>
@@ -1311,7 +1378,7 @@
         <v>6</v>
       </c>
       <c r="AK5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="n">
         <v>24</v>
@@ -1323,10 +1390,10 @@
         <v>11</v>
       </c>
       <c r="AO5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP5" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AQ5" t="n">
         <v>8</v>
@@ -1335,16 +1402,16 @@
         <v>6</v>
       </c>
       <c r="AS5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU5" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AV5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW5" t="n">
         <v>10</v>
@@ -1353,7 +1420,7 @@
         <v>4</v>
       </c>
       <c r="AY5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ5" t="n">
         <v>19</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-5-2008-09</t>
+          <t>2009-03-05</t>
         </is>
       </c>
     </row>
@@ -1394,43 +1461,43 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E6" t="n">
         <v>48</v>
       </c>
       <c r="F6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="H6" t="n">
         <v>48.1</v>
       </c>
       <c r="I6" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J6" t="n">
-        <v>78.3</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.47</v>
+        <v>0.469</v>
       </c>
       <c r="L6" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="M6" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="N6" t="n">
-        <v>0.391</v>
+        <v>0.389</v>
       </c>
       <c r="O6" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="P6" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="Q6" t="n">
         <v>0.755</v>
@@ -1439,7 +1506,7 @@
         <v>10.8</v>
       </c>
       <c r="S6" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="T6" t="n">
         <v>41.7</v>
@@ -1448,49 +1515,49 @@
         <v>20</v>
       </c>
       <c r="V6" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="W6" t="n">
         <v>7.8</v>
       </c>
       <c r="X6" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>100.2</v>
+        <v>100</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AD6" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AE6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF6" t="n">
         <v>1</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH6" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>26</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>25</v>
       </c>
       <c r="AK6" t="n">
         <v>5</v>
@@ -1505,16 +1572,16 @@
         <v>4</v>
       </c>
       <c r="AO6" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AP6" t="n">
         <v>15</v>
       </c>
       <c r="AQ6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AS6" t="n">
         <v>10</v>
@@ -1526,7 +1593,7 @@
         <v>25</v>
       </c>
       <c r="AV6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW6" t="n">
         <v>8</v>
@@ -1535,10 +1602,10 @@
         <v>5</v>
       </c>
       <c r="AY6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA6" t="n">
         <v>21</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-5-2008-09</t>
+          <t>2009-03-05</t>
         </is>
       </c>
     </row>
@@ -1576,88 +1643,88 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" t="n">
         <v>37</v>
       </c>
       <c r="F7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7" t="n">
-        <v>0.597</v>
+        <v>0.607</v>
       </c>
       <c r="H7" t="n">
         <v>48.4</v>
       </c>
       <c r="I7" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="J7" t="n">
-        <v>82.7</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>0.459</v>
+        <v>0.46</v>
       </c>
       <c r="L7" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M7" t="n">
         <v>19.5</v>
       </c>
       <c r="N7" t="n">
-        <v>0.345</v>
+        <v>0.347</v>
       </c>
       <c r="O7" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="P7" t="n">
         <v>22.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.82</v>
+        <v>0.819</v>
       </c>
       <c r="R7" t="n">
         <v>11.2</v>
       </c>
       <c r="S7" t="n">
-        <v>31.7</v>
+        <v>31.9</v>
       </c>
       <c r="T7" t="n">
-        <v>42.9</v>
+        <v>43</v>
       </c>
       <c r="U7" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="V7" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="W7" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X7" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y7" t="n">
         <v>4.1</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AA7" t="n">
         <v>20</v>
       </c>
       <c r="AB7" t="n">
-        <v>100.8</v>
+        <v>101</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AE7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF7" t="n">
         <v>11</v>
@@ -1666,7 +1733,7 @@
         <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI7" t="n">
         <v>7</v>
@@ -1684,10 +1751,10 @@
         <v>11</v>
       </c>
       <c r="AN7" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AO7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP7" t="n">
         <v>29</v>
@@ -1699,31 +1766,31 @@
         <v>13</v>
       </c>
       <c r="AS7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT7" t="n">
         <v>4</v>
       </c>
       <c r="AU7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AV7" t="n">
         <v>10</v>
       </c>
       <c r="AW7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY7" t="n">
         <v>7</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>6</v>
       </c>
       <c r="AZ7" t="n">
         <v>3</v>
       </c>
       <c r="BA7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-5-2008-09</t>
+          <t>2009-03-05</t>
         </is>
       </c>
     </row>
@@ -1758,28 +1825,28 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" t="n">
         <v>22</v>
       </c>
       <c r="G8" t="n">
-        <v>0.645</v>
+        <v>0.639</v>
       </c>
       <c r="H8" t="n">
         <v>48.2</v>
       </c>
       <c r="I8" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J8" t="n">
-        <v>78.59999999999999</v>
+        <v>78.5</v>
       </c>
       <c r="K8" t="n">
-        <v>0.468</v>
+        <v>0.467</v>
       </c>
       <c r="L8" t="n">
         <v>6.4</v>
@@ -1788,31 +1855,31 @@
         <v>17.6</v>
       </c>
       <c r="N8" t="n">
-        <v>0.364</v>
+        <v>0.362</v>
       </c>
       <c r="O8" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="P8" t="n">
-        <v>30.2</v>
+        <v>30.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.756</v>
+        <v>0.755</v>
       </c>
       <c r="R8" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S8" t="n">
         <v>30.4</v>
       </c>
       <c r="T8" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="U8" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="V8" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="W8" t="n">
         <v>8.699999999999999</v>
@@ -1821,10 +1888,10 @@
         <v>5.9</v>
       </c>
       <c r="Y8" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="AA8" t="n">
         <v>23.7</v>
@@ -1833,13 +1900,13 @@
         <v>102.8</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF8" t="n">
         <v>6</v>
@@ -1848,10 +1915,10 @@
         <v>6</v>
       </c>
       <c r="AH8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ8" t="n">
         <v>24</v>
@@ -1866,7 +1933,7 @@
         <v>18</v>
       </c>
       <c r="AN8" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1878,10 +1945,10 @@
         <v>21</v>
       </c>
       <c r="AR8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT8" t="n">
         <v>16</v>
@@ -1899,7 +1966,7 @@
         <v>3</v>
       </c>
       <c r="AY8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ8" t="n">
         <v>25</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-5-2008-09</t>
+          <t>2009-03-05</t>
         </is>
       </c>
     </row>
@@ -2087,7 +2154,7 @@
         <v>18</v>
       </c>
       <c r="BA9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB9" t="n">
         <v>29</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-5-2008-09</t>
+          <t>2009-03-05</t>
         </is>
       </c>
     </row>
@@ -2212,7 +2279,7 @@
         <v>24</v>
       </c>
       <c r="AH10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI10" t="n">
         <v>3</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-5-2008-09</t>
+          <t>2009-03-05</t>
         </is>
       </c>
     </row>
@@ -2385,13 +2452,13 @@
         <v>3</v>
       </c>
       <c r="AE11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF11" t="n">
         <v>9</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH11" t="n">
         <v>21</v>
@@ -2412,10 +2479,10 @@
         <v>5</v>
       </c>
       <c r="AN11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP11" t="n">
         <v>20</v>
@@ -2436,7 +2503,7 @@
         <v>18</v>
       </c>
       <c r="AV11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW11" t="n">
         <v>26</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-5-2008-09</t>
+          <t>2009-03-05</t>
         </is>
       </c>
     </row>
@@ -2567,7 +2634,7 @@
         <v>1</v>
       </c>
       <c r="AE12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF12" t="n">
         <v>22</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-5-2008-09</t>
+          <t>2009-03-05</t>
         </is>
       </c>
     </row>
@@ -2758,7 +2825,7 @@
         <v>28</v>
       </c>
       <c r="AH13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI13" t="n">
         <v>25</v>
@@ -2776,7 +2843,7 @@
         <v>14</v>
       </c>
       <c r="AN13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO13" t="n">
         <v>29</v>
@@ -2797,10 +2864,10 @@
         <v>22</v>
       </c>
       <c r="AU13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW13" t="n">
         <v>21</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-5-2008-09</t>
+          <t>2009-03-05</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E14" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F14" t="n">
         <v>12</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8</v>
+        <v>0.803</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
@@ -2868,7 +2935,7 @@
         <v>40.7</v>
       </c>
       <c r="J14" t="n">
-        <v>85.59999999999999</v>
+        <v>85.5</v>
       </c>
       <c r="K14" t="n">
         <v>0.476</v>
@@ -2877,34 +2944,34 @@
         <v>6.9</v>
       </c>
       <c r="M14" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="N14" t="n">
-        <v>0.361</v>
+        <v>0.364</v>
       </c>
       <c r="O14" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="P14" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="Q14" t="n">
         <v>0.77</v>
       </c>
       <c r="R14" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="S14" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T14" t="n">
         <v>44.5</v>
       </c>
       <c r="U14" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="V14" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="W14" t="n">
         <v>8.6</v>
@@ -2913,34 +2980,34 @@
         <v>5.2</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AB14" t="n">
-        <v>108.9</v>
+        <v>108.7</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.9</v>
+        <v>8.1</v>
       </c>
       <c r="AD14" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="AE14" t="n">
         <v>1</v>
       </c>
       <c r="AF14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI14" t="n">
         <v>1</v>
@@ -2955,13 +3022,13 @@
         <v>12</v>
       </c>
       <c r="AM14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN14" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AO14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP14" t="n">
         <v>6</v>
@@ -2970,7 +3037,7 @@
         <v>16</v>
       </c>
       <c r="AR14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS14" t="n">
         <v>7</v>
@@ -2997,7 +3064,7 @@
         <v>14</v>
       </c>
       <c r="BA14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-5-2008-09</t>
+          <t>2009-03-05</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-6</v>
       </c>
       <c r="AD15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-5-2008-09</t>
+          <t>2009-03-05</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-0.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
@@ -3307,7 +3374,7 @@
         <v>19</v>
       </c>
       <c r="AI16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ16" t="n">
         <v>12</v>
@@ -3331,7 +3398,7 @@
         <v>28</v>
       </c>
       <c r="AQ16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR16" t="n">
         <v>25</v>
@@ -3352,7 +3419,7 @@
         <v>5</v>
       </c>
       <c r="AX16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY16" t="n">
         <v>5</v>
@@ -3367,7 +3434,7 @@
         <v>21</v>
       </c>
       <c r="BC16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-5-2008-09</t>
+          <t>2009-03-05</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E17" t="n">
         <v>29</v>
       </c>
       <c r="F17" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G17" t="n">
-        <v>0.46</v>
+        <v>0.453</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
@@ -3414,46 +3481,46 @@
         <v>36.5</v>
       </c>
       <c r="J17" t="n">
-        <v>81.59999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="K17" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L17" t="n">
         <v>6</v>
       </c>
       <c r="M17" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="N17" t="n">
-        <v>0.363</v>
+        <v>0.364</v>
       </c>
       <c r="O17" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="P17" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="Q17" t="n">
         <v>0.782</v>
       </c>
       <c r="R17" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S17" t="n">
-        <v>29.1</v>
+        <v>28.9</v>
       </c>
       <c r="T17" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="U17" t="n">
         <v>21.6</v>
       </c>
       <c r="V17" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W17" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X17" t="n">
         <v>3.8</v>
@@ -3462,7 +3529,7 @@
         <v>4.7</v>
       </c>
       <c r="Z17" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="AA17" t="n">
         <v>23</v>
@@ -3471,16 +3538,16 @@
         <v>99.3</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>16</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG17" t="n">
         <v>17</v>
@@ -3507,10 +3574,10 @@
         <v>18</v>
       </c>
       <c r="AO17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP17" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AQ17" t="n">
         <v>11</v>
@@ -3522,16 +3589,16 @@
         <v>24</v>
       </c>
       <c r="AT17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV17" t="n">
         <v>15</v>
       </c>
-      <c r="AU17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>13</v>
-      </c>
       <c r="AW17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
@@ -3546,10 +3613,10 @@
         <v>4</v>
       </c>
       <c r="BB17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-5-2008-09</t>
+          <t>2009-03-05</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-4.7</v>
       </c>
       <c r="AD18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AE18" t="n">
         <v>25</v>
@@ -3692,7 +3759,7 @@
         <v>18</v>
       </c>
       <c r="AP18" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AQ18" t="n">
         <v>17</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-5-2008-09</t>
+          <t>2009-03-05</t>
         </is>
       </c>
     </row>
@@ -3841,13 +3908,13 @@
         <v>9</v>
       </c>
       <c r="AE19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF19" t="n">
         <v>17</v>
       </c>
       <c r="AG19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH19" t="n">
         <v>7</v>
@@ -3874,7 +3941,7 @@
         <v>14</v>
       </c>
       <c r="AP19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ19" t="n">
         <v>9</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-5-2008-09</t>
+          <t>2009-03-05</t>
         </is>
       </c>
     </row>
@@ -3942,46 +4009,46 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E20" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F20" t="n">
         <v>22</v>
       </c>
       <c r="G20" t="n">
-        <v>0.633</v>
+        <v>0.627</v>
       </c>
       <c r="H20" t="n">
         <v>48.1</v>
       </c>
       <c r="I20" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="J20" t="n">
-        <v>76.90000000000001</v>
+        <v>77</v>
       </c>
       <c r="K20" t="n">
-        <v>0.457</v>
+        <v>0.455</v>
       </c>
       <c r="L20" t="n">
         <v>7.5</v>
       </c>
       <c r="M20" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="N20" t="n">
-        <v>0.38</v>
+        <v>0.379</v>
       </c>
       <c r="O20" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="P20" t="n">
         <v>23.1</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.806</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="R20" t="n">
         <v>9.699999999999999</v>
@@ -3993,7 +4060,7 @@
         <v>39.6</v>
       </c>
       <c r="U20" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="V20" t="n">
         <v>12.6</v>
@@ -4005,7 +4072,7 @@
         <v>4.3</v>
       </c>
       <c r="Y20" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Z20" t="n">
         <v>20.6</v>
@@ -4014,25 +4081,25 @@
         <v>21</v>
       </c>
       <c r="AB20" t="n">
-        <v>96.3</v>
+        <v>96.2</v>
       </c>
       <c r="AC20" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="AE20" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AF20" t="n">
         <v>6</v>
       </c>
       <c r="AG20" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AH20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI20" t="n">
         <v>28</v>
@@ -4041,7 +4108,7 @@
         <v>28</v>
       </c>
       <c r="AK20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL20" t="n">
         <v>8</v>
@@ -4050,7 +4117,7 @@
         <v>9</v>
       </c>
       <c r="AN20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO20" t="n">
         <v>21</v>
@@ -4074,7 +4141,7 @@
         <v>26</v>
       </c>
       <c r="AV20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW20" t="n">
         <v>13</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-5-2008-09</t>
+          <t>2009-03-05</t>
         </is>
       </c>
     </row>
@@ -4202,13 +4269,13 @@
         <v>-2</v>
       </c>
       <c r="AD21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AE21" t="n">
         <v>22</v>
       </c>
       <c r="AF21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG21" t="n">
         <v>22</v>
@@ -4235,7 +4302,7 @@
         <v>16</v>
       </c>
       <c r="AO21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP21" t="n">
         <v>23</v>
@@ -4250,10 +4317,10 @@
         <v>8</v>
       </c>
       <c r="AT21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV21" t="n">
         <v>16</v>
@@ -4268,7 +4335,7 @@
         <v>23</v>
       </c>
       <c r="AZ21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-5-2008-09</t>
+          <t>2009-03-05</t>
         </is>
       </c>
     </row>
@@ -4420,7 +4487,7 @@
         <v>9</v>
       </c>
       <c r="AP22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ22" t="n">
         <v>12</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-5-2008-09</t>
+          <t>2009-03-05</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>7</v>
       </c>
       <c r="AD23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4584,7 +4651,7 @@
         <v>21</v>
       </c>
       <c r="AJ23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK23" t="n">
         <v>9</v>
@@ -4620,7 +4687,7 @@
         <v>29</v>
       </c>
       <c r="AV23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW23" t="n">
         <v>17</v>
@@ -4632,7 +4699,7 @@
         <v>2</v>
       </c>
       <c r="AZ23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA23" t="n">
         <v>8</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-5-2008-09</t>
+          <t>2009-03-05</t>
         </is>
       </c>
     </row>
@@ -4781,7 +4848,7 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP24" t="n">
         <v>8</v>
@@ -4790,7 +4857,7 @@
         <v>26</v>
       </c>
       <c r="AR24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS24" t="n">
         <v>18</v>
@@ -4799,7 +4866,7 @@
         <v>10</v>
       </c>
       <c r="AU24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV24" t="n">
         <v>18</v>
@@ -4814,7 +4881,7 @@
         <v>15</v>
       </c>
       <c r="AZ24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-5-2008-09</t>
+          <t>2009-03-05</t>
         </is>
       </c>
     </row>
@@ -4954,7 +5021,7 @@
         <v>1</v>
       </c>
       <c r="AL25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM25" t="n">
         <v>19</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-5-2008-09</t>
+          <t>2009-03-05</t>
         </is>
       </c>
     </row>
@@ -5049,43 +5116,43 @@
         <v>48.3</v>
       </c>
       <c r="I26" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J26" t="n">
-        <v>79.2</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.465</v>
+        <v>0.462</v>
       </c>
       <c r="L26" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M26" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="N26" t="n">
-        <v>0.379</v>
+        <v>0.381</v>
       </c>
       <c r="O26" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="P26" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="Q26" t="n">
         <v>0.762</v>
       </c>
       <c r="R26" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="S26" t="n">
         <v>28.2</v>
       </c>
       <c r="T26" t="n">
-        <v>41.1</v>
+        <v>41.3</v>
       </c>
       <c r="U26" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V26" t="n">
         <v>12.9</v>
@@ -5100,19 +5167,19 @@
         <v>3.8</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA26" t="n">
         <v>21.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.40000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AE26" t="n">
         <v>8</v>
@@ -5127,25 +5194,25 @@
         <v>15</v>
       </c>
       <c r="AI26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ26" t="n">
         <v>21</v>
       </c>
       <c r="AK26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL26" t="n">
         <v>10</v>
       </c>
       <c r="AM26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN26" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AO26" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AP26" t="n">
         <v>18</v>
@@ -5160,10 +5227,10 @@
         <v>29</v>
       </c>
       <c r="AT26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AU26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV26" t="n">
         <v>5</v>
@@ -5172,10 +5239,10 @@
         <v>25</v>
       </c>
       <c r="AX26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ26" t="n">
         <v>17</v>
@@ -5184,7 +5251,7 @@
         <v>14</v>
       </c>
       <c r="BB26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BC26" t="n">
         <v>5</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-5-2008-09</t>
+          <t>2009-03-05</t>
         </is>
       </c>
     </row>
@@ -5306,7 +5373,7 @@
         <v>30</v>
       </c>
       <c r="AH27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI27" t="n">
         <v>23</v>
@@ -5327,7 +5394,7 @@
         <v>21</v>
       </c>
       <c r="AO27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP27" t="n">
         <v>12</v>
@@ -5366,7 +5433,7 @@
         <v>11</v>
       </c>
       <c r="BB27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC27" t="n">
         <v>30</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-5-2008-09</t>
+          <t>2009-03-05</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>3.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AE28" t="n">
         <v>5</v>
@@ -5497,7 +5564,7 @@
         <v>17</v>
       </c>
       <c r="AK28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL28" t="n">
         <v>5</v>
@@ -5506,7 +5573,7 @@
         <v>8</v>
       </c>
       <c r="AN28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO28" t="n">
         <v>30</v>
@@ -5515,7 +5582,7 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR28" t="n">
         <v>30</v>
@@ -5536,7 +5603,7 @@
         <v>30</v>
       </c>
       <c r="AX28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY28" t="n">
         <v>11</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-5-2008-09</t>
+          <t>2009-03-05</t>
         </is>
       </c>
     </row>
@@ -5679,7 +5746,7 @@
         <v>19</v>
       </c>
       <c r="AK29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL29" t="n">
         <v>22</v>
@@ -5712,7 +5779,7 @@
         <v>8</v>
       </c>
       <c r="AV29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW29" t="n">
         <v>29</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-5-2008-09</t>
+          <t>2009-03-05</t>
         </is>
       </c>
     </row>
@@ -5852,7 +5919,7 @@
         <v>10</v>
       </c>
       <c r="AH30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI30" t="n">
         <v>6</v>
@@ -5870,7 +5937,7 @@
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO30" t="n">
         <v>3</v>
@@ -5879,7 +5946,7 @@
         <v>3</v>
       </c>
       <c r="AQ30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR30" t="n">
         <v>9</v>
@@ -5900,7 +5967,7 @@
         <v>1</v>
       </c>
       <c r="AX30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY30" t="n">
         <v>16</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-5-2008-09</t>
+          <t>2009-03-05</t>
         </is>
       </c>
     </row>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-5-2008-09</t>
+          <t>2009-03-05</t>
         </is>
       </c>
     </row>
